--- a/businessdomain/rimanalisis/src/main/resources/static/S10.DRCM.FR.001-Registro de depuracion de datos_V02.xlsx
+++ b/businessdomain/rimanalisis/src/main/resources/static/S10.DRCM.FR.001-Registro de depuracion de datos_V02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sirimv2\microservices\simparent\businessdomain\rimextraccion\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sirim\sirim-backend\businessdomain\rimanalisis\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E365DF-20B4-491A-8CEB-6FD55A198973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B12CB9-01F4-4A78-961C-973A24208EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" formato" sheetId="1" r:id="rId1"/>
@@ -127,21 +127,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor rgb="FF2F5496"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -230,6 +224,17 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -246,45 +251,23 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -292,8 +275,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,38 +284,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,24 +335,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,6 +346,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000080"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -635,130 +605,120 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="12.625" style="12"/>
+    <col min="1" max="1" width="0.375" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="9"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="9"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="8"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="17" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -772,7 +732,7 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B6:E6"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
